--- a/data/data_lagerestimater.xlsx
+++ b/data/data_lagerestimater.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiebach/Documents/11. semester/Speciale/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiebach/Documents/11. semester/git/Speciale/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{926E6389-C278-3E46-9C7E-BD87F8665D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402096D1-18C5-1642-A830-DC9970E4647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14600" xr2:uid="{3F570FB4-5971-8947-8E82-492FA564E6CA}"/>
+    <workbookView xWindow="-38360" yWindow="-3100" windowWidth="17520" windowHeight="19680" xr2:uid="{3F570FB4-5971-8947-8E82-492FA564E6CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,24 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>DRK</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Ramasjang</t>
-  </si>
-  <si>
-    <t>Ultra</t>
   </si>
   <si>
     <t>DR1</t>
   </si>
   <si>
     <t>DR2</t>
-  </si>
-  <si>
-    <t>DR3</t>
   </si>
   <si>
     <t>P1</t>
@@ -70,16 +62,19 @@
     <t>P5</t>
   </si>
   <si>
-    <t>P6 BEAT</t>
+    <t>P6</t>
   </si>
   <si>
-    <t>P7 MIX</t>
+    <t>P8</t>
   </si>
   <si>
-    <t>P8 JAZZ</t>
+    <t>Week/Channel</t>
   </si>
   <si>
-    <t>Dr.dk</t>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>SOME</t>
   </si>
 </sst>
 </file>
@@ -103,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,12 +106,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,23 +439,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D783F1-F67E-DF45-A156-8BCEF0C7FFF3}">
-  <dimension ref="B1:P1"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -471,19 +486,1454 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1316</v>
+      </c>
+      <c r="C2" s="1">
+        <v>133</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44.099999999999994</v>
+      </c>
+      <c r="E2" s="1">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F2" s="1">
+        <v>14.700000000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>259</v>
+      </c>
+      <c r="H2" s="1">
+        <v>672</v>
+      </c>
+      <c r="I2" s="1">
+        <v>69.3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L2" s="2">
+        <v>42092311.333333328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1211</v>
+      </c>
+      <c r="C3" s="1">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44.099999999999994</v>
+      </c>
+      <c r="F3" s="1">
+        <v>23.799999999999997</v>
+      </c>
+      <c r="G3" s="1">
+        <v>294</v>
+      </c>
+      <c r="H3" s="1">
+        <v>784</v>
+      </c>
+      <c r="I3" s="1">
+        <v>90.300000000000011</v>
+      </c>
+      <c r="J3" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L3" s="2">
+        <v>47700088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1316</v>
+      </c>
+      <c r="C4" s="1">
+        <v>133</v>
+      </c>
+      <c r="D4" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44.099999999999994</v>
+      </c>
+      <c r="F4" s="1">
+        <v>21.700000000000003</v>
+      </c>
+      <c r="G4" s="1">
+        <v>322</v>
+      </c>
+      <c r="H4" s="1">
+        <v>889</v>
+      </c>
+      <c r="I4" s="1">
+        <v>84</v>
+      </c>
+      <c r="J4" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L4" s="2">
+        <v>46151840.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1386</v>
+      </c>
+      <c r="C5" s="1">
+        <v>119</v>
+      </c>
+      <c r="D5" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>301</v>
+      </c>
+      <c r="H5" s="1">
+        <v>847</v>
+      </c>
+      <c r="I5" s="1">
+        <v>89.6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>52824385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1064</v>
+      </c>
+      <c r="C6" s="1">
+        <v>119</v>
+      </c>
+      <c r="D6" s="1">
+        <v>39.900000000000006</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="G6" s="1">
+        <v>322</v>
+      </c>
+      <c r="H6" s="1">
+        <v>931</v>
+      </c>
+      <c r="I6" s="1">
+        <v>88.199999999999989</v>
+      </c>
+      <c r="J6" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L6" s="2">
+        <v>63209319.999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1134</v>
+      </c>
+      <c r="C7" s="1">
+        <v>133</v>
+      </c>
+      <c r="D7" s="1">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="G7" s="1">
+        <v>322</v>
+      </c>
+      <c r="H7" s="1">
+        <v>910</v>
+      </c>
+      <c r="I7" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>56789773.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1071</v>
+      </c>
+      <c r="C8" s="1">
+        <v>126</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30.799999999999997</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44.099999999999994</v>
+      </c>
+      <c r="F8" s="1">
+        <v>23.799999999999997</v>
+      </c>
+      <c r="G8" s="1">
+        <v>301</v>
+      </c>
+      <c r="H8" s="1">
+        <v>854</v>
+      </c>
+      <c r="I8" s="1">
+        <v>84</v>
+      </c>
+      <c r="J8" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L8" s="2">
+        <v>60914698.999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1050</v>
+      </c>
+      <c r="C9" s="1">
+        <v>119</v>
+      </c>
+      <c r="D9" s="1">
+        <v>29.400000000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>37.1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>23.799999999999997</v>
+      </c>
+      <c r="G9" s="1">
+        <v>301</v>
+      </c>
+      <c r="H9" s="1">
+        <v>875</v>
+      </c>
+      <c r="I9" s="1">
+        <v>91</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L9" s="2">
+        <v>58862181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1071</v>
+      </c>
+      <c r="C10" s="1">
+        <v>112</v>
+      </c>
+      <c r="D10" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F10" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>336</v>
+      </c>
+      <c r="H10" s="1">
+        <v>889</v>
+      </c>
+      <c r="I10" s="1">
+        <v>99.4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L10" s="2">
+        <v>56779025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B11" s="1">
+        <v>1092</v>
+      </c>
+      <c r="C11" s="1">
+        <v>98</v>
+      </c>
+      <c r="D11" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1">
+        <v>25.200000000000003</v>
+      </c>
+      <c r="G11" s="1">
+        <v>336</v>
+      </c>
+      <c r="H11" s="1">
+        <v>889</v>
+      </c>
+      <c r="I11" s="1">
+        <v>98.699999999999989</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>48122094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B12">
+        <v>1134</v>
+      </c>
+      <c r="C12">
+        <v>119</v>
+      </c>
+      <c r="D12">
+        <v>31.5</v>
+      </c>
+      <c r="E12">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F12">
+        <v>20.3</v>
+      </c>
+      <c r="G12">
+        <v>322</v>
+      </c>
+      <c r="H12">
+        <v>875</v>
+      </c>
+      <c r="I12">
+        <v>90.3</v>
+      </c>
+      <c r="J12">
+        <v>11.2</v>
+      </c>
+      <c r="K12">
+        <v>2.1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>51573124.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="L13" s="2">
+        <v>50040341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="L14" s="2">
+        <v>50723420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
+      </c>
+      <c r="L15" s="2">
+        <v>49398961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2">
+        <v>45456757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="L17" s="2">
+        <v>45287987.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="L18" s="2">
+        <v>43767589.727272727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="L19" s="2">
+        <v>50205134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="L20" s="2">
+        <v>50620102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="L21" s="2">
+        <v>46742355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="L22" s="2">
+        <v>45487880.666666672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="L23" s="2">
+        <v>43832488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="L24" s="2">
+        <v>41248239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="L25" s="2">
+        <v>55166780</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="L26" s="2">
+        <v>54662589</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="L27" s="2">
+        <v>52180504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="L28" s="2">
+        <v>57713319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="L29" s="2">
+        <v>55631365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="L30" s="2">
+        <v>45304300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="L31" s="2">
+        <v>46543645.166666672</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>672</v>
+      </c>
+      <c r="C32">
+        <v>84</v>
+      </c>
+      <c r="D32">
+        <v>23.8</v>
+      </c>
+      <c r="E32">
+        <v>42</v>
+      </c>
+      <c r="F32">
+        <v>21</v>
+      </c>
+      <c r="G32">
+        <v>245</v>
+      </c>
+      <c r="H32">
+        <v>630</v>
+      </c>
+      <c r="I32">
+        <v>48.300000000000004</v>
+      </c>
+      <c r="J32">
+        <v>8.4</v>
+      </c>
+      <c r="K32">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="L32" s="2">
+        <v>67429175.333333343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>714</v>
+      </c>
+      <c r="C33" s="1">
+        <v>91</v>
+      </c>
+      <c r="D33" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E33" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="F33" s="1">
+        <v>23.799999999999997</v>
+      </c>
+      <c r="G33" s="1">
+        <v>294</v>
+      </c>
+      <c r="H33" s="1">
+        <v>749</v>
+      </c>
+      <c r="I33" s="1">
+        <v>70</v>
+      </c>
+      <c r="J33" s="1">
+        <v>7</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L33" s="2">
+        <v>73864712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>798</v>
+      </c>
+      <c r="C34" s="1">
+        <v>91</v>
+      </c>
+      <c r="D34" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="F34" s="1">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="G34" s="1">
+        <v>308</v>
+      </c>
+      <c r="H34" s="1">
+        <v>819</v>
+      </c>
+      <c r="I34" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="J34" s="1">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="K34" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L34" s="2">
+        <v>43539354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>889</v>
+      </c>
+      <c r="C35" s="1">
+        <v>91</v>
+      </c>
+      <c r="D35" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="F35" s="1">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="G35" s="1">
+        <v>322</v>
+      </c>
+      <c r="H35" s="1">
+        <v>854</v>
+      </c>
+      <c r="I35" s="1">
+        <v>76.300000000000011</v>
+      </c>
+      <c r="J35" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>50184192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>966</v>
+      </c>
+      <c r="C36" s="1">
+        <v>84</v>
+      </c>
+      <c r="D36" s="1">
+        <v>27.299999999999997</v>
+      </c>
+      <c r="E36" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="F36" s="1">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="G36" s="1">
+        <v>329</v>
+      </c>
+      <c r="H36" s="1">
+        <v>784</v>
+      </c>
+      <c r="I36" s="1">
+        <v>76.300000000000011</v>
+      </c>
+      <c r="J36" s="1">
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L36" s="2">
+        <v>45863983</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>966</v>
+      </c>
+      <c r="C37" s="1">
+        <v>91</v>
+      </c>
+      <c r="D37" s="1">
+        <v>30.799999999999997</v>
+      </c>
+      <c r="E37" s="1">
+        <v>56</v>
+      </c>
+      <c r="F37" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G37" s="1">
+        <v>329</v>
+      </c>
+      <c r="H37" s="1">
+        <v>707</v>
+      </c>
+      <c r="I37" s="1">
+        <v>79.800000000000011</v>
+      </c>
+      <c r="J37" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L37" s="2">
+        <v>44646489</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>903</v>
+      </c>
+      <c r="C38" s="1">
+        <v>112</v>
+      </c>
+      <c r="D38" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="E38" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="F38" s="1">
+        <v>14.700000000000001</v>
+      </c>
+      <c r="G38" s="1">
+        <v>315</v>
+      </c>
+      <c r="H38" s="1">
+        <v>707</v>
+      </c>
+      <c r="I38" s="1">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="J38" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="K38" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L38" s="2">
+        <v>42331770</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>938</v>
+      </c>
+      <c r="C39" s="1">
+        <v>98</v>
+      </c>
+      <c r="D39" s="1">
+        <v>39.900000000000006</v>
+      </c>
+      <c r="E39" s="1">
+        <v>48.3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>21</v>
+      </c>
+      <c r="G39" s="1">
+        <v>392</v>
+      </c>
+      <c r="H39" s="1">
+        <v>770</v>
+      </c>
+      <c r="I39" s="1">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="J39" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>42899296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>959</v>
+      </c>
+      <c r="C40" s="1">
+        <v>98</v>
+      </c>
+      <c r="D40" s="1">
+        <v>46.900000000000006</v>
+      </c>
+      <c r="E40" s="1">
+        <v>53.900000000000006</v>
+      </c>
+      <c r="F40" s="1">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="G40" s="1">
+        <v>378</v>
+      </c>
+      <c r="H40" s="1">
+        <v>791</v>
+      </c>
+      <c r="I40" s="1">
+        <v>83.300000000000011</v>
+      </c>
+      <c r="J40" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="K40" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L40" s="2">
+        <v>42450659</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>959</v>
+      </c>
+      <c r="C41" s="1">
+        <v>112</v>
+      </c>
+      <c r="D41" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>48.3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>23.799999999999997</v>
+      </c>
+      <c r="G41" s="1">
+        <v>364</v>
+      </c>
+      <c r="H41" s="1">
+        <v>721</v>
+      </c>
+      <c r="I41" s="1">
+        <v>88.199999999999989</v>
+      </c>
+      <c r="J41" s="1">
+        <v>14</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L41" s="2">
+        <v>44077004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>994</v>
+      </c>
+      <c r="C42" s="1">
+        <v>112</v>
+      </c>
+      <c r="D42" s="1">
+        <v>43.400000000000006</v>
+      </c>
+      <c r="E42" s="1">
+        <v>48.3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>21</v>
+      </c>
+      <c r="G42" s="1">
+        <v>378</v>
+      </c>
+      <c r="H42" s="1">
+        <v>707</v>
+      </c>
+      <c r="I42" s="1">
+        <v>90.300000000000011</v>
+      </c>
+      <c r="J42" s="1">
+        <v>14.700000000000001</v>
+      </c>
+      <c r="K42" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>43480072</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>945</v>
+      </c>
+      <c r="C43" s="1">
+        <v>98</v>
+      </c>
+      <c r="D43" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>48.3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="G43" s="1">
+        <v>350</v>
+      </c>
+      <c r="H43" s="1">
+        <v>700</v>
+      </c>
+      <c r="I43" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L43" s="2">
+        <v>44474157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1050</v>
+      </c>
+      <c r="C44" s="1">
+        <v>98</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>44.099999999999994</v>
+      </c>
+      <c r="F44" s="1">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="G44" s="1">
+        <v>364</v>
+      </c>
+      <c r="H44" s="1">
+        <v>707</v>
+      </c>
+      <c r="I44" s="1">
+        <v>86.800000000000011</v>
+      </c>
+      <c r="J44" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="K44" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="L44" s="2">
+        <v>38720206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1134</v>
+      </c>
+      <c r="C45" s="1">
+        <v>112</v>
+      </c>
+      <c r="D45" s="1">
+        <v>51.099999999999994</v>
+      </c>
+      <c r="E45" s="1">
+        <v>44.099999999999994</v>
+      </c>
+      <c r="F45" s="1">
+        <v>21.700000000000003</v>
+      </c>
+      <c r="G45" s="1">
+        <v>378</v>
+      </c>
+      <c r="H45" s="1">
+        <v>721</v>
+      </c>
+      <c r="I45" s="1">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="J45" s="1">
+        <v>14</v>
+      </c>
+      <c r="K45" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="L45" s="2">
+        <v>41559393</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1085</v>
+      </c>
+      <c r="C46" s="1">
+        <v>112</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="E46" s="1">
+        <v>44.099999999999994</v>
+      </c>
+      <c r="F46" s="1">
+        <v>23.799999999999997</v>
+      </c>
+      <c r="G46" s="1">
+        <v>420</v>
+      </c>
+      <c r="H46" s="1">
+        <v>735</v>
+      </c>
+      <c r="I46" s="1">
+        <v>77.699999999999989</v>
+      </c>
+      <c r="J46" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="K46" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L46" s="2">
+        <v>41441372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1078</v>
+      </c>
+      <c r="C47" s="1">
+        <v>112</v>
+      </c>
+      <c r="D47" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>51.8</v>
+      </c>
+      <c r="F47" s="1">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="G47" s="1">
+        <v>420</v>
+      </c>
+      <c r="H47" s="1">
+        <v>714</v>
+      </c>
+      <c r="I47" s="1">
+        <v>76.300000000000011</v>
+      </c>
+      <c r="J47" s="1">
+        <v>11.899999999999999</v>
+      </c>
+      <c r="K47" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L47" s="2">
+        <v>41822296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1008</v>
+      </c>
+      <c r="C48" s="1">
+        <v>112</v>
+      </c>
+      <c r="D48" s="1">
+        <v>49</v>
+      </c>
+      <c r="E48" s="1">
+        <v>56</v>
+      </c>
+      <c r="F48" s="1">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="G48" s="1">
+        <v>399</v>
+      </c>
+      <c r="H48" s="1">
+        <v>770</v>
+      </c>
+      <c r="I48" s="1">
+        <v>76.300000000000011</v>
+      </c>
+      <c r="J48" s="1">
+        <v>11.899999999999999</v>
+      </c>
+      <c r="K48" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="L48" s="2">
+        <v>50990775</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1015</v>
+      </c>
+      <c r="C49" s="1">
+        <v>112</v>
+      </c>
+      <c r="D49" s="1">
+        <v>49</v>
+      </c>
+      <c r="E49" s="1">
+        <v>56</v>
+      </c>
+      <c r="F49" s="1">
+        <v>21</v>
+      </c>
+      <c r="G49" s="1">
+        <v>385</v>
+      </c>
+      <c r="H49" s="1">
+        <v>749</v>
+      </c>
+      <c r="I49" s="1">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="J49" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="K49" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L49" s="2">
+        <v>46839950</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1113</v>
+      </c>
+      <c r="C50" s="1">
+        <v>98</v>
+      </c>
+      <c r="D50" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>58.099999999999994</v>
+      </c>
+      <c r="F50" s="1">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="G50" s="1">
+        <v>392</v>
+      </c>
+      <c r="H50" s="1">
+        <v>742</v>
+      </c>
+      <c r="I50" s="1">
+        <v>69.3</v>
+      </c>
+      <c r="J50" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L50" s="2">
+        <v>51157570</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1197</v>
+      </c>
+      <c r="C51" s="1">
+        <v>98</v>
+      </c>
+      <c r="D51" s="1">
+        <v>49</v>
+      </c>
+      <c r="E51" s="1">
+        <v>56</v>
+      </c>
+      <c r="F51" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G51" s="1">
+        <v>420</v>
+      </c>
+      <c r="H51" s="1">
+        <v>777</v>
+      </c>
+      <c r="I51" s="1">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="J51" s="1">
+        <v>11.899999999999999</v>
+      </c>
+      <c r="K51" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="L51" s="2">
+        <v>51199020</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1309</v>
+      </c>
+      <c r="C52" s="1">
+        <v>98</v>
+      </c>
+      <c r="D52" s="1">
+        <v>51.099999999999994</v>
+      </c>
+      <c r="E52" s="1">
+        <v>49</v>
+      </c>
+      <c r="F52" s="1">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="G52" s="1">
+        <v>427</v>
+      </c>
+      <c r="H52" s="1">
+        <v>784</v>
+      </c>
+      <c r="I52" s="1">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="J52" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L52" s="2">
+        <v>58916099</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1407</v>
+      </c>
+      <c r="C53" s="1">
+        <v>112</v>
+      </c>
+      <c r="D53" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="E53" s="1">
+        <v>49</v>
+      </c>
+      <c r="F53" s="1">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="G53" s="1">
+        <v>385</v>
+      </c>
+      <c r="H53" s="1">
+        <v>679</v>
+      </c>
+      <c r="I53" s="1">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="J53" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="K53" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L53" s="2">
+        <v>45334540</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1407</v>
+      </c>
+      <c r="C54" s="1">
+        <v>112</v>
+      </c>
+      <c r="D54" s="1">
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E54" s="1">
+        <v>49</v>
+      </c>
+      <c r="F54" s="1">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="G54" s="1">
+        <v>392</v>
+      </c>
+      <c r="H54" s="1">
+        <v>707</v>
+      </c>
+      <c r="I54" s="1">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="J54" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="K54" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L54" s="2">
+        <v>34418970.833333328</v>
       </c>
     </row>
   </sheetData>
